--- a/Udemy/LinkStatus.xlsx
+++ b/Udemy/LinkStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="88">
   <si>
     <t>Link</t>
   </si>
@@ -23,247 +23,250 @@
     <t>Status</t>
   </si>
   <si>
+    <t>https://cvquality.acc.org/home</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/data-collection</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/about-ncdr</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/get-started</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/acc-quality-summit</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/</t>
+  </si>
+  <si>
     <t>https://cvquality.acc.org/About-QII</t>
   </si>
   <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/home</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/get-started</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/about-ncdr</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/acc-quality-summit</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/data-collection</t>
+    <t>https://cvquality.acc.org/NCDR-Home/registries</t>
   </si>
   <si>
     <t>https://cvquality.acc.org/news</t>
   </si>
   <si>
+    <t>https://cvquality.acc.org/NCDR-Home/participant-directory</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/ncdr-learning-center</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/reports</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/acc-public-reporting</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/ncdr-ereports-corporate</t>
+  </si>
+  <si>
     <t>https://cvquality.acc.org/NCDR-Home/quality-payment-program</t>
   </si>
   <si>
-    <t>https://cvquality.acc.org/NCDR-Home/registries</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/ncdr-ereports-corporate</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/participant-directory</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/reports</t>
+    <t>https://cvquality.acc.org/NCDR-Home/annual-conference</t>
   </si>
   <si>
     <t>https://cvquality.acc.org/NCDR-Home/real-world-evidence</t>
   </si>
   <si>
-    <t>https://cvquality.acc.org/NCDR-Home/ncdr-learning-center</t>
+    <t>https://cvquality.acc.org/accreditation</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/acc-and-carta-healthcare-collaboration</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/information-for-health-systems</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/heartcare-center-recognition-program</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/about-accreditation</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/services</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/join-a-registry</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/quality-initiative-proposal</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/brand</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/acc-quality-summit-2020</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/news-and-events</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/advocacy</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/about-us</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/initiatives</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/qii-learning-center</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/map</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/accreditation/information-for-health-systems</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/initiatives/shared-best-practices</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/initiatives/D2B</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/initiatives/reduce-the-risk-pci-bleed</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/initiatives/patient-navigator</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/initiatives/hospital-to-home</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/initiatives/acpc-quality-network</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/initiatives/surviving-mi</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/registry-participant-login</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/shared-decision-making</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/pci-bleeding-risk-checklist</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/advance-care-planning-toolkit</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/qi-communications-kit</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/qi-toolkit</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/ascvd-risk-estimator</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/acc-guideline-clinical-app</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/h2h-toolkits</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/acc-statin-intolerance-app</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/ncdr-clinical-quality-coach-app</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/surviving-mi-toolkit</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/acc-cathpci-bleeding-risk-calculator-app</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/treathf-app</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/anticoagevaluator-app</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/systems-of-care-toolkit</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/clinical-toolkits/d2b-strategic-tools</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/#</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/#carousel-11bae72d-a08d-43ac-9354-3ec15b2fcf51</t>
+  </si>
+  <si>
+    <t>https://www.ncdr.com/webncdr/login</t>
+  </si>
+  <si>
+    <t>https://qualitysummit2024.eventscribe.net/</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/ncdr-home/features/us-news-world-report-best-hospitals-issue</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/NCDR-Home/registries/hospital-registries</t>
+  </si>
+  <si>
+    <t>https://cvquality.acc.org/contact-us</t>
+  </si>
+  <si>
+    <t>https://www.acc.org/</t>
+  </si>
+  <si>
+    <t>https://alm.acc.org/</t>
+  </si>
+  <si>
+    <t>https://www.acc.org/footer-pages/terms-and-conditions</t>
+  </si>
+  <si>
+    <t>https://www.acc.org/footer-pages/registered-user-agreement</t>
+  </si>
+  <si>
+    <t>https://www.acc.org/footer-pages/cookie-policy</t>
+  </si>
+  <si>
+    <t>https://www.jacc.org/</t>
+  </si>
+  <si>
+    <t>Broken</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AmericanCollegeofCardiology</t>
   </si>
   <si>
     <t>https://cvquality.acc.org/NCDR-Home/research</t>
   </si>
   <si>
-    <t>https://cvquality.acc.org/NCDR-Home/acc-public-reporting</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/annual-conference</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/information-for-health-systems</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/acc-and-carta-healthcare-collaboration</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/quality-initiative-proposal</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/advocacy</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/acc-quality-summit-2020</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/about-accreditation</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/heartcare-center-recognition-program</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/join-a-registry</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/services</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/about-us</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/brand</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/map</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/initiatives/hospital-to-home</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/initiatives</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/news-and-events</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/initiatives/D2B</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/qii-learning-center</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/initiatives/shared-best-practices</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/initiatives/surviving-mi</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/registry-participant-login</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/accreditation/information-for-health-systems</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/initiatives/acpc-quality-network</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/initiatives/patient-navigator</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/shared-decision-making</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/initiatives/reduce-the-risk-pci-bleed</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/qi-toolkit</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/qi-communications-kit</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/advance-care-planning-toolkit</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/pci-bleeding-risk-checklist</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/acc-guideline-clinical-app</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/h2h-toolkits</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/ascvd-risk-estimator</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/acc-statin-intolerance-app</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/anticoagevaluator-app</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/treathf-app</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/ncdr-clinical-quality-coach-app</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/d2b-strategic-tools</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/acc-cathpci-bleeding-risk-calculator-app</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/#</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/systems-of-care-toolkit</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/#carousel-24589602-065e-45fb-9341-ca5919acaf70</t>
-  </si>
-  <si>
-    <t>https://alm.acc.org/</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/ncdr-home/features/us-news-world-report-best-hospitals-issue</t>
-  </si>
-  <si>
-    <t>https://www.ncdr.com/webncdr/login</t>
-  </si>
-  <si>
-    <t>https://qualitysummit2024.eventscribe.net/</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/NCDR-Home/registries/hospital-registries</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/clinical-toolkits/surviving-mi-toolkit</t>
-  </si>
-  <si>
-    <t>https://www.acc.org/</t>
-  </si>
-  <si>
-    <t>https://cvquality.acc.org/contact-us</t>
-  </si>
-  <si>
-    <t>https://www.acc.org/footer-pages/registered-user-agreement</t>
+    <t>https://www.youtube.com/user/ACCinTouch</t>
   </si>
   <si>
     <t>https://www.acc.org/footer-pages/privacy-policy</t>
   </si>
   <si>
-    <t>https://www.acc.org/footer-pages/terms-and-conditions</t>
-  </si>
-  <si>
-    <t>https://www.acc.org/footer-pages/cookie-policy</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AmericanCollegeofCardiology</t>
-  </si>
-  <si>
-    <t>https://www.jacc.org/</t>
-  </si>
-  <si>
-    <t>Broken</t>
+    <t>javascript:return false;</t>
+  </si>
+  <si>
+    <t>https://twitter.com/accintouch</t>
   </si>
   <si>
     <t>https://www.instagram.com/americancollegeofcardiology/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/user/ACCinTouch</t>
-  </si>
-  <si>
-    <t>https://twitter.com/accintouch</t>
   </si>
   <si>
     <t>https://www.linkedin.com/groups/American-College-Cardiology-732607?trk=myg_ugrp_ovr</t>
@@ -317,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -581,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>-1.0</v>
+        <v>200.0</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>4</v>
@@ -592,7 +595,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>-1.0</v>
+        <v>200.0</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>4</v>
@@ -603,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>-1.0</v>
+        <v>200.0</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>4</v>
@@ -1007,7 +1010,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>200.0</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>200.0</v>
@@ -1051,7 +1054,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>200.0</v>
@@ -1062,7 +1065,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>200.0</v>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>200.0</v>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>200.0</v>
@@ -1095,7 +1098,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>200.0</v>
@@ -1106,7 +1109,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>200.0</v>
@@ -1117,7 +1120,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>200.0</v>
@@ -1128,7 +1131,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>200.0</v>
@@ -1139,7 +1142,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>200.0</v>
@@ -1150,7 +1153,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>200.0</v>
@@ -1161,7 +1164,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>200.0</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>200.0</v>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>200.0</v>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>200.0</v>
@@ -1205,7 +1208,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>200.0</v>
@@ -1227,7 +1230,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>200.0</v>
@@ -1238,7 +1241,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>200.0</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>200.0</v>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>200.0</v>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>200.0</v>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>200.0</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>200.0</v>
@@ -1304,7 +1307,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" t="n" s="0">
         <v>200.0</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B91" t="n" s="0">
         <v>200.0</v>
@@ -1326,7 +1329,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B92" t="n" s="0">
         <v>200.0</v>
@@ -1337,18 +1340,18 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B93" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C93" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="B93" t="n" s="0">
-        <v>200.0</v>
-      </c>
-      <c r="C93" t="s" s="0">
-        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B94" t="n" s="0">
         <v>200.0</v>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B95" t="n" s="0">
         <v>200.0</v>
@@ -1370,7 +1373,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B96" t="n" s="0">
         <v>200.0</v>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B97" t="n" s="0">
         <v>200.0</v>
@@ -1392,7 +1395,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B98" t="n" s="0">
         <v>200.0</v>
@@ -1403,21 +1406,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B99" t="n" s="0">
-        <v>403.0</v>
+        <v>200.0</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B100" t="n" s="0">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>4</v>
@@ -1425,7 +1428,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B101" t="n" s="0">
         <v>200.0</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B102" t="n" s="0">
         <v>200.0</v>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B103" t="n" s="0">
         <v>200.0</v>
@@ -1458,7 +1461,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B104" t="n" s="0">
         <v>200.0</v>
@@ -1469,12 +1472,56 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B105" t="n" s="0">
         <v>200.0</v>
       </c>
       <c r="C105" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B106" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B107" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B108" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B109" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C109" t="s" s="0">
         <v>4</v>
       </c>
     </row>
